--- a/例題.xlsx
+++ b/例題.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>番号</t>
   </si>
@@ -50,6 +50,42 @@
     <t>解答</t>
   </si>
   <si>
+    <t>①</t>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <t>③</t>
+  </si>
+  <si>
+    <t>④</t>
+  </si>
+  <si>
+    <t>⑤</t>
+  </si>
+  <si>
+    <t>⑥</t>
+  </si>
+  <si>
+    <t>⑦</t>
+  </si>
+  <si>
+    <t>⑧</t>
+  </si>
+  <si>
+    <t>⑨</t>
+  </si>
+  <si>
+    <t>➉</t>
+  </si>
+  <si>
+    <t>⑪</t>
+  </si>
+  <si>
+    <t>⑫</t>
+  </si>
+  <si>
     <t>私は誕生日に父にセーターをあげました。</t>
   </si>
   <si>
@@ -65,13 +101,13 @@
     <t>1_通常整序問題</t>
   </si>
   <si>
-    <t>{  a / gave / I / father / for / sweater / my } his birthday.</t>
-  </si>
-  <si>
-    <t>a / gave / I / father / for / sweater / my</t>
-  </si>
-  <si>
-    <t>I gave my father a sweater for</t>
+    <t>{ sweater / father / a / my / I / gave } for his birthday.</t>
+  </si>
+  <si>
+    <t>sweater / father / a / my / I / gave</t>
+  </si>
+  <si>
+    <t>I gave my father a sweater</t>
   </si>
   <si>
     <t>少年の頃、友達とよくサッカーをしました。</t>
@@ -92,66 +128,15 @@
     <t>4_余剰語削除整序問題</t>
   </si>
   <si>
-    <t>{ my friends / often / played / play /  I / with / soccer } when I was a boy.（余計な選択肢が１つあるので除くこと）</t>
-  </si>
-  <si>
-    <t>my friends / often / played / play /  I / with / soccer</t>
+    <t>{ play / I / often / soccer / my friends / played / with } when I was a boy. （余計な選択肢が１つあるので除くこと）</t>
+  </si>
+  <si>
+    <t>play / I / often / soccer / my friends / played / with</t>
   </si>
   <si>
     <t>I often played soccer with my friends</t>
   </si>
   <si>
-    <t>①</t>
-  </si>
-  <si>
-    <t>②</t>
-  </si>
-  <si>
-    <t>③</t>
-  </si>
-  <si>
-    <t>④</t>
-  </si>
-  <si>
-    <t>⑤</t>
-  </si>
-  <si>
-    <t>⑥</t>
-  </si>
-  <si>
-    <t>⑦</t>
-  </si>
-  <si>
-    <t>⑧</t>
-  </si>
-  <si>
-    <t>⑨</t>
-  </si>
-  <si>
-    <t>➉</t>
-  </si>
-  <si>
-    <t>⑪</t>
-  </si>
-  <si>
-    <t>⑫</t>
-  </si>
-  <si>
-    <t>{ sweater / father / a / my / I / gave } for his birthday.</t>
-  </si>
-  <si>
-    <t>sweater / father / a / my / I / gave</t>
-  </si>
-  <si>
-    <t>I gave my father a sweater</t>
-  </si>
-  <si>
-    <t>{ play / I / often / soccer / my friends / played / with } when I was a boy. （余計な選択肢が１つあるので除くこと）</t>
-  </si>
-  <si>
-    <t>play / I / often / soccer / my friends / played / with</t>
-  </si>
-  <si>
     <t>【注意事項】</t>
   </si>
   <si>
@@ -176,7 +161,7 @@
     <t>問題タイプ（必須）：プルダウンから「通常整序問題」か「余剰語削除整序問題」のどちらかを選ぶ</t>
   </si>
   <si>
-    <t>スター＋（必須）：つねに「1」を入力</t>
+    <t>スター＋（必須）：「1」を半角数字で入力</t>
   </si>
   <si>
     <t>問題（必須）：半角</t>
@@ -567,78 +552,32 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4">
       <c r="G4" s="6"/>
@@ -730,40 +669,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -809,35 +748,35 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4">
         <v>1.0</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
@@ -845,138 +784,138 @@
         <v>2.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H4" s="4">
         <v>1.0</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19">
